--- a/lab2handout/ResultsSummary.xlsx
+++ b/lab2handout/ResultsSummary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9587" windowHeight="1873" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="1875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>applu</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Tage</t>
+  </si>
+  <si>
+    <t>BPAT</t>
+  </si>
+  <si>
+    <t>Alpha21264</t>
   </si>
 </sst>
 </file>
@@ -414,22 +420,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.703125" customWidth="1"/>
-    <col min="4" max="4" width="14.41015625" customWidth="1"/>
-    <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="12.41015625" customWidth="1"/>
-    <col min="7" max="7" width="14.29296875" customWidth="1"/>
-    <col min="8" max="8" width="13.87890625" customWidth="1"/>
-    <col min="9" max="9" width="12.29296875" customWidth="1"/>
-    <col min="10" max="10" width="13.703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="16.703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -440,7 +446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -481,7 +487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -534,7 +540,7 @@
         <v>0.97805632233031425</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -587,7 +593,7 @@
         <v>0.79832650381877812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -640,7 +646,7 @@
         <v>0.76503124424340507</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -693,7 +699,7 @@
         <v>0.88252707559981325</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -746,7 +752,7 @@
         <v>0.94317312336164938</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -799,7 +805,7 @@
         <v>0.9067073062288189</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9">
         <f>AVERAGE(F3:F8)</f>
         <v>0.89582953747612493</v>
@@ -813,12 +819,12 @@
         <v>0.87897026259712996</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -871,7 +877,7 @@
         <v>0.97393030328940133</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -924,7 +930,7 @@
         <v>0.99307129714328102</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -977,7 +983,7 @@
         <v>0.97825629533316605</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>0.99632687074138093</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>0.97842851023637856</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>AVERAGE(F11:F15)</f>
         <v>0.89361321649111625</v>
@@ -1097,7 +1103,7 @@
         <v>0.98400265534872167</v>
       </c>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.5">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F18">
         <f>AVERAGE(F3:F8,F11:F15)</f>
         <v>0.89482211884657548</v>
@@ -1119,28 +1125,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.703125" customWidth="1"/>
-    <col min="4" max="4" width="14.41015625" customWidth="1"/>
-    <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="12.41015625" customWidth="1"/>
-    <col min="7" max="7" width="14.29296875" customWidth="1"/>
-    <col min="8" max="8" width="13.87890625" customWidth="1"/>
-    <col min="9" max="9" width="12.29296875" customWidth="1"/>
-    <col min="10" max="10" width="13.703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="16.703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1156,8 +1162,14 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1221,8 +1233,32 @@
       <c r="Y2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1291,23 +1327,55 @@
         <v>0.98086195176095514</v>
       </c>
       <c r="V3">
-        <v>800360068</v>
+        <v>800250833</v>
       </c>
       <c r="W3">
-        <v>16494453</v>
+        <v>16472249</v>
       </c>
       <c r="X3">
-        <v>183021768</v>
+        <v>183043971</v>
       </c>
       <c r="Y3">
-        <v>9358287</v>
+        <v>9467523</v>
       </c>
       <c r="Z3">
         <f>(V3+X3)/(V3+W3+X3+Y3)</f>
-        <v>0.97438381461080659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.97429757896047353</v>
+      </c>
+      <c r="AA3">
+        <v>803853169</v>
+      </c>
+      <c r="AB3">
+        <v>13552219</v>
+      </c>
+      <c r="AC3">
+        <v>185964002</v>
+      </c>
+      <c r="AD3">
+        <v>5865186</v>
+      </c>
+      <c r="AE3">
+        <f>(AA3+AC3)/(AA3+AB3+AC3+AD3)</f>
+        <v>0.98076026578780229</v>
+      </c>
+      <c r="AF3">
+        <v>804101192</v>
+      </c>
+      <c r="AG3">
+        <v>13512493</v>
+      </c>
+      <c r="AH3">
+        <v>186003727</v>
+      </c>
+      <c r="AI3">
+        <v>5617164</v>
+      </c>
+      <c r="AJ3">
+        <f>(AF3+AH3)/(AF3+AG3+AH3+AI3)</f>
+        <v>0.98104538087089876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1376,23 +1444,55 @@
         <v>0.91939866321107577</v>
       </c>
       <c r="V4">
-        <v>95235475</v>
+        <v>94057313</v>
       </c>
       <c r="W4">
-        <v>13959782</v>
+        <v>14822667</v>
       </c>
       <c r="X4">
-        <v>115254901</v>
+        <v>114382312</v>
       </c>
       <c r="Y4">
-        <v>13673452</v>
+        <v>14851334</v>
       </c>
       <c r="Z4">
         <f t="shared" ref="Z4:Z8" si="3">(V4+X4)/(V4+W4+X4+Y4)</f>
-        <v>0.88395424544420442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.87537882019401947</v>
+      </c>
+      <c r="AA4">
+        <v>98149660</v>
+      </c>
+      <c r="AB4">
+        <v>9689619</v>
+      </c>
+      <c r="AC4">
+        <v>119506454</v>
+      </c>
+      <c r="AD4">
+        <v>10762112</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE8" si="4">(AA4+AC4)/(AA4+AB4+AC4+AD4)</f>
+        <v>0.91410727773375122</v>
+      </c>
+      <c r="AF4">
+        <v>99081886</v>
+      </c>
+      <c r="AG4">
+        <v>9164469</v>
+      </c>
+      <c r="AH4">
+        <v>120030677</v>
+      </c>
+      <c r="AI4">
+        <v>9828647</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ8" si="5">(AF4+AH4)/(AF4+AG4+AH4+AI4)</f>
+        <v>0.92023241075237017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1461,23 +1561,55 @@
         <v>0.90215567755653203</v>
       </c>
       <c r="V5">
-        <v>139092012</v>
+        <v>138137979</v>
       </c>
       <c r="W5">
-        <v>28475304</v>
+        <v>27114202</v>
       </c>
       <c r="X5">
-        <v>185410802</v>
+        <v>186771903</v>
       </c>
       <c r="Y5">
-        <v>35321144</v>
+        <v>36275178</v>
       </c>
       <c r="Z5">
         <f t="shared" si="3"/>
-        <v>0.83570288629598266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.83675122205099628</v>
+      </c>
+      <c r="AA5">
+        <v>151750986</v>
+      </c>
+      <c r="AB5">
+        <v>18894749</v>
+      </c>
+      <c r="AC5">
+        <v>194991329</v>
+      </c>
+      <c r="AD5">
+        <v>22662201</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="4"/>
+        <v>0.89297700576384043</v>
+      </c>
+      <c r="AF5">
+        <v>155585318</v>
+      </c>
+      <c r="AG5">
+        <v>15968096</v>
+      </c>
+      <c r="AH5">
+        <v>197917897</v>
+      </c>
+      <c r="AI5">
+        <v>18827948</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="5"/>
+        <v>0.91038859025996755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1546,23 +1678,55 @@
         <v>0.96097225688443688</v>
       </c>
       <c r="V6">
-        <v>38975111</v>
+        <v>38682069</v>
       </c>
       <c r="W6">
-        <v>4515163</v>
+        <v>4846169</v>
       </c>
       <c r="X6">
-        <v>66378584</v>
+        <v>66047451</v>
       </c>
       <c r="Y6">
-        <v>4316772</v>
+        <v>4610103</v>
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>0.92265283293528266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.91718521337575865</v>
+      </c>
+      <c r="AA6">
+        <v>40738328</v>
+      </c>
+      <c r="AB6">
+        <v>2228401</v>
+      </c>
+      <c r="AC6">
+        <v>68665220</v>
+      </c>
+      <c r="AD6">
+        <v>2553843</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="4"/>
+        <v>0.95811874738321212</v>
+      </c>
+      <c r="AF6">
+        <v>41083623</v>
+      </c>
+      <c r="AG6">
+        <v>2020612</v>
+      </c>
+      <c r="AH6">
+        <v>68873496</v>
+      </c>
+      <c r="AI6">
+        <v>2207343</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>0.96297278749409931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1631,23 +1795,55 @@
         <v>0.95401078195840894</v>
       </c>
       <c r="V7">
-        <v>144345570</v>
+        <v>144377821</v>
       </c>
       <c r="W7">
-        <v>17076791</v>
+        <v>16880138</v>
       </c>
       <c r="X7">
-        <v>109648030</v>
+        <v>109844682</v>
       </c>
       <c r="Y7">
-        <v>13851131</v>
+        <v>13818881</v>
       </c>
       <c r="Z7">
         <f t="shared" si="3"/>
-        <v>0.8914510852570835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.89225447490063592</v>
+      </c>
+      <c r="AA7">
+        <v>152734101</v>
+      </c>
+      <c r="AB7">
+        <v>7688656</v>
+      </c>
+      <c r="AC7">
+        <v>119036164</v>
+      </c>
+      <c r="AD7">
+        <v>5462601</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="4"/>
+        <v>0.95384252861038699</v>
+      </c>
+      <c r="AF7">
+        <v>152831082</v>
+      </c>
+      <c r="AG7">
+        <v>7544868</v>
+      </c>
+      <c r="AH7">
+        <v>119179953</v>
+      </c>
+      <c r="AI7">
+        <v>5365619</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="5"/>
+        <v>0.95468756831925106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1860,7 @@
         <v>20770651</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="4">(B8+D8)/(B8+C8+D8+E8)</f>
+        <f t="shared" ref="F8" si="6">(B8+D8)/(B8+C8+D8+E8)</f>
         <v>0.90399945867576914</v>
       </c>
       <c r="G8">
@@ -1716,23 +1912,55 @@
         <v>0.93510419635499709</v>
       </c>
       <c r="V8">
-        <v>197691430</v>
+        <v>197472651</v>
       </c>
       <c r="W8">
-        <v>23163353</v>
+        <v>23272078</v>
       </c>
       <c r="X8">
-        <v>214832715</v>
+        <v>214726725</v>
       </c>
       <c r="Y8">
-        <v>20985213</v>
+        <v>21207822</v>
       </c>
       <c r="Z8">
         <f t="shared" si="3"/>
-        <v>0.90332558758913883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.90260144846161139</v>
+      </c>
+      <c r="AA8">
+        <v>201844142</v>
+      </c>
+      <c r="AB8">
+        <v>13449202</v>
+      </c>
+      <c r="AC8">
+        <v>224551040</v>
+      </c>
+      <c r="AD8">
+        <v>16833898</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="4"/>
+        <v>0.93368832897553911</v>
+      </c>
+      <c r="AF8">
+        <v>202703342</v>
+      </c>
+      <c r="AG8">
+        <v>13043312</v>
+      </c>
+      <c r="AH8">
+        <v>224934786</v>
+      </c>
+      <c r="AI8">
+        <v>15964427</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="5"/>
+        <v>0.9364765103633359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F9">
         <f>AVERAGE(F3:F8)</f>
         <v>0.90554671674098508</v>
@@ -1751,15 +1979,23 @@
       </c>
       <c r="Z9">
         <f>AVERAGE(Z3:Z8)</f>
-        <v>0.90191174202208313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+        <v>0.89974479299058263</v>
+      </c>
+      <c r="AE9">
+        <f>AVERAGE(AE3:AE8)</f>
+        <v>0.93891569237575545</v>
+      </c>
+      <c r="AJ9">
+        <f>AVERAGE(AJ3:AJ8)</f>
+        <v>0.94430054134332053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2044,7 @@
         <v>123704</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P15" si="5">(L11+N11)/(L11+M11+N11+O11)</f>
+        <f t="shared" ref="P11:P15" si="7">(L11+N11)/(L11+M11+N11+O11)</f>
         <v>0.97393672956547517</v>
       </c>
       <c r="Q11">
@@ -1824,27 +2060,59 @@
         <v>29846</v>
       </c>
       <c r="U11">
-        <f t="shared" ref="U11:U15" si="6">(Q11+S11)/(Q11+R11+S11+T11)</f>
+        <f t="shared" ref="U11:U15" si="8">(Q11+S11)/(Q11+R11+S11+T11)</f>
         <v>0.98326506001352509</v>
       </c>
       <c r="V11">
-        <v>4700918</v>
+        <v>4695626</v>
       </c>
       <c r="W11">
-        <v>2057218</v>
+        <v>2062305</v>
       </c>
       <c r="X11">
-        <v>1693169</v>
+        <v>1689595</v>
       </c>
       <c r="Y11">
-        <v>554165</v>
+        <v>557944</v>
       </c>
       <c r="Z11">
-        <f t="shared" ref="Z11:Z15" si="7">(V11+X11)/(V11+W11+X11+Y11)</f>
-        <v>0.71002257516820333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+        <f t="shared" ref="Z11:Z15" si="9">(V11+X11)/(V11+W11+X11+Y11)</f>
+        <v>0.70903806242206124</v>
+      </c>
+      <c r="AA11">
+        <v>5218507</v>
+      </c>
+      <c r="AB11">
+        <v>123287</v>
+      </c>
+      <c r="AC11">
+        <v>3628624</v>
+      </c>
+      <c r="AD11">
+        <v>35052</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" ref="AE11:AE15" si="10">(AA11+AC11)/(AA11+AB11+AC11+AD11)</f>
+        <v>0.98241746405240371</v>
+      </c>
+      <c r="AF11">
+        <v>5231254</v>
+      </c>
+      <c r="AG11">
+        <v>18904</v>
+      </c>
+      <c r="AH11">
+        <v>3731484</v>
+      </c>
+      <c r="AI11">
+        <v>23828</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" ref="AJ11:AJ15" si="11">(AF11+AH11)/(AF11+AG11+AH11+AI11)</f>
+        <v>0.99525488397607231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1893,7 +2161,7 @@
         <v>931988</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99289564525164953</v>
       </c>
       <c r="Q12">
@@ -1909,27 +2177,59 @@
         <v>1211710</v>
       </c>
       <c r="U12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99078591209660039</v>
       </c>
       <c r="V12">
-        <v>177422968</v>
+        <v>177422716</v>
       </c>
       <c r="W12">
-        <v>4452781</v>
+        <v>4451190</v>
       </c>
       <c r="X12">
-        <v>67982613</v>
+        <v>67984203</v>
       </c>
       <c r="Y12">
-        <v>16058690</v>
+        <v>16058943</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="7"/>
-        <v>0.92286515345394249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+        <f t="shared" si="9"/>
+        <v>0.92287018509817109</v>
+      </c>
+      <c r="AA12">
+        <v>192278542</v>
+      </c>
+      <c r="AB12">
+        <v>1245194</v>
+      </c>
+      <c r="AC12">
+        <v>71190200</v>
+      </c>
+      <c r="AD12">
+        <v>1203116</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="10"/>
+        <v>0.99079295599290862</v>
+      </c>
+      <c r="AF12">
+        <v>192273363</v>
+      </c>
+      <c r="AG12">
+        <v>1215595</v>
+      </c>
+      <c r="AH12">
+        <v>71219798</v>
+      </c>
+      <c r="AI12">
+        <v>1208296</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="11"/>
+        <v>0.99088478538036739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +2278,7 @@
         <v>470867</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98373139905148077</v>
       </c>
       <c r="Q13">
@@ -1994,27 +2294,59 @@
         <v>476244</v>
       </c>
       <c r="U13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98375769615717135</v>
       </c>
       <c r="V13">
-        <v>26797282</v>
+        <v>26362129</v>
       </c>
       <c r="W13">
-        <v>3732527</v>
+        <v>4197183</v>
       </c>
       <c r="X13">
-        <v>45285636</v>
+        <v>44820979</v>
       </c>
       <c r="Y13">
-        <v>2938427</v>
+        <v>3373581</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="7"/>
-        <v>0.91529363787979845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+        <f t="shared" si="9"/>
+        <v>0.90386804092629247</v>
+      </c>
+      <c r="AA13">
+        <v>29179250</v>
+      </c>
+      <c r="AB13">
+        <v>917851</v>
+      </c>
+      <c r="AC13">
+        <v>48100313</v>
+      </c>
+      <c r="AD13">
+        <v>556458</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="10"/>
+        <v>0.98127953632552822</v>
+      </c>
+      <c r="AF13">
+        <v>29357203</v>
+      </c>
+      <c r="AG13">
+        <v>775569</v>
+      </c>
+      <c r="AH13">
+        <v>48242594</v>
+      </c>
+      <c r="AI13">
+        <v>378506</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="11"/>
+        <v>0.98534579988651227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2395,7 @@
         <v>55840</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99962548702442588</v>
       </c>
       <c r="Q14">
@@ -2079,27 +2411,59 @@
         <v>23412</v>
       </c>
       <c r="U14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99973298154680179</v>
       </c>
       <c r="V14">
-        <v>162375493</v>
+        <v>162375029</v>
       </c>
       <c r="W14">
-        <v>1652423</v>
+        <v>1652407</v>
       </c>
       <c r="X14">
-        <v>164586273</v>
+        <v>164586289</v>
       </c>
       <c r="Y14">
-        <v>3486455</v>
+        <v>3486918</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="7"/>
-        <v>0.98452614262319826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+        <f t="shared" si="9"/>
+        <v>0.98452479659908398</v>
+      </c>
+      <c r="AA14">
+        <v>165838729</v>
+      </c>
+      <c r="AB14">
+        <v>66010</v>
+      </c>
+      <c r="AC14">
+        <v>166172687</v>
+      </c>
+      <c r="AD14">
+        <v>23217</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="10"/>
+        <v>0.99973132542233589</v>
+      </c>
+      <c r="AF14">
+        <v>165838968</v>
+      </c>
+      <c r="AG14">
+        <v>65837</v>
+      </c>
+      <c r="AH14">
+        <v>166172859</v>
+      </c>
+      <c r="AI14">
+        <v>22979</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="11"/>
+        <v>0.99973256299898217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2148,7 +2512,7 @@
         <v>95498</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98493381407721681</v>
       </c>
       <c r="Q15">
@@ -2164,27 +2528,59 @@
         <v>93686</v>
       </c>
       <c r="U15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98453835190040051</v>
       </c>
       <c r="V15">
-        <v>7010692</v>
+        <v>7006955</v>
       </c>
       <c r="W15">
-        <v>176239</v>
+        <v>174193</v>
       </c>
       <c r="X15">
-        <v>3787415</v>
+        <v>3789460</v>
       </c>
       <c r="Y15">
-        <v>184749</v>
+        <v>188487</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>0.96765078171661767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+        <f t="shared" si="9"/>
+        <v>0.96749915651762086</v>
+      </c>
+      <c r="AA15">
+        <v>7104548</v>
+      </c>
+      <c r="AB15">
+        <v>83098</v>
+      </c>
+      <c r="AC15">
+        <v>3880574</v>
+      </c>
+      <c r="AD15">
+        <v>90875</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="10"/>
+        <v>0.98440975724285884</v>
+      </c>
+      <c r="AF15">
+        <v>7111400</v>
+      </c>
+      <c r="AG15">
+        <v>71453</v>
+      </c>
+      <c r="AH15">
+        <v>3892219</v>
+      </c>
+      <c r="AI15">
+        <v>84023</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="11"/>
+        <v>0.98606732893662075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>AVERAGE(F11:F15)</f>
         <v>0.90030270116018996</v>
@@ -2203,10 +2599,18 @@
       </c>
       <c r="Z16">
         <f>AVERAGE(Z11:Z15)</f>
-        <v>0.90007165816835211</v>
-      </c>
-    </row>
-    <row r="18" spans="6:26" x14ac:dyDescent="0.5">
+        <v>0.89756004831264602</v>
+      </c>
+      <c r="AE16">
+        <f>AVERAGE(AE11:AE15)</f>
+        <v>0.98772620780720699</v>
+      </c>
+      <c r="AJ16">
+        <f>AVERAGE(AJ11:AJ15)</f>
+        <v>0.99145707223571089</v>
+      </c>
+    </row>
+    <row r="18" spans="6:36" x14ac:dyDescent="0.25">
       <c r="F18">
         <f>AVERAGE(F3:F8,F11:F15)</f>
         <v>0.90316307329516909</v>
@@ -2225,7 +2629,15 @@
       </c>
       <c r="Z18">
         <f>AVERAGE(Z3:Z8,Z11:Z15)</f>
-        <v>0.90107534027038705</v>
+        <v>0.89875172722788399</v>
+      </c>
+      <c r="AE18">
+        <f>AVERAGE(AE3:AE8,AE11:AE15)</f>
+        <v>0.96110229029914251</v>
+      </c>
+      <c r="AJ18">
+        <f>AVERAGE(AJ3:AJ8,AJ11:AJ15)</f>
+        <v>0.96573532811258889</v>
       </c>
     </row>
   </sheetData>
